--- a/2em/02-sop/aula08/juros.xlsx
+++ b/2em/02-sop/aula08/juros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\02-sop\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75DD20-B5BB-4A0F-A3A4-9663749F4D04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE807F71-C40F-4798-A5E9-DD39735FF0E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{7327C358-D555-446E-878B-944EE40227EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7327C358-D555-446E-878B-944EE40227EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Compostos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>i</t>
   </si>
@@ -115,6 +115,24 @@
   <si>
     <t>Parcela</t>
   </si>
+  <si>
+    <t>Montante</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
+  </si>
+  <si>
+    <t>Mêses</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +142,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,12 +187,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -239,6 +268,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compostos!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Investimento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -251,9 +291,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Compostos!$F$3:$F$12</c:f>
+              <c:f>Compostos!$F$3:$F$27</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>jan</c:v>
                 </c:pt>
@@ -283,52 +323,142 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dez</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fev</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>abr</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mai</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ago</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>set</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>out</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dez</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compostos!$G$3:$G$12</c:f>
+              <c:f>Compostos!$G$3:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20200</c:v>
+                  <c:v>30174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20402</c:v>
+                  <c:v>30349.0092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20606.02</c:v>
+                  <c:v>30525.03345336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20812.0802</c:v>
+                  <c:v>30702.078647389488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21020.201002000002</c:v>
+                  <c:v>30880.150703544346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21230.40301202</c:v>
+                  <c:v>31059.255577624903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21442.707042140202</c:v>
+                  <c:v>31239.399259975125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21657.134112561605</c:v>
+                  <c:v>31420.58777568298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21873.70545368722</c:v>
+                  <c:v>31602.827184781941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31786.123582453678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31970.483099231908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32155.911901207452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32342.416190234453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32530.002204137814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32718.676216921813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32908.444538979958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33099.313517306044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33291.289535706419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33484.379015013517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33678.588413300597</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33873.924226097741</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34070.392986609106</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34268.001265931438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34466.755673273838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A8A-48BD-96DB-DB55957B9799}"/>
+              <c16:uniqueId val="{00000000-324E-42B5-B9D3-284A1707EC47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -342,11 +472,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="467920280"/>
-        <c:axId val="467911424"/>
+        <c:axId val="555179496"/>
+        <c:axId val="555179824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467920280"/>
+        <c:axId val="555179496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467911424"/>
+        <c:crossAx val="555179824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467911424"/>
+        <c:axId val="555179824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +578,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467920280"/>
+        <c:crossAx val="555179496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -551,6 +681,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Price!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Juros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -563,10 +704,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Price!$F$3:$F$12</c:f>
+              <c:f>Price!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -596,58 +737,153 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Price!$G$3:$G$12</c:f>
+              <c:f>Price!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.88358468976574</c:v>
+                  <c:v>192.58530555534708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.57600522642915</c:v>
+                  <c:v>185.09646416624761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.07534996845916</c:v>
+                  <c:v>177.53273436325716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.37968815790948</c:v>
+                  <c:v>169.89336726223678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.48706972925432</c:v>
+                  <c:v>162.17760649020622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.395525116312584</c:v>
+                  <c:v>154.38468811045533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.103065057241437</c:v>
+                  <c:v>146.51384054690695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.607680397579593</c:v>
+                  <c:v>138.56428450772307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.907341891321117</c:v>
+                  <c:v>130.53523290814735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122.42589079257588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.23545525584871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.96311536375424</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.608052072738843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.169438148813299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.646438085648484</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.038208021852029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.343895657417619</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.562640169338849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.693572126379294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.735813402990146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.688477092367108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.550667418637836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3214796481712732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3782-4562-B602-E6E0C9094DB2}"/>
+              <c16:uniqueId val="{00000000-BAFC-432C-9A7C-B476BCEF6886}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Price!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amortização</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -660,10 +896,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Price!$F$3:$F$12</c:f>
+              <c:f>Price!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -693,52 +929,328 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Price!$H$3:$H$12</c:f>
+              <c:f>Price!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1911.641531023427</c:v>
+                  <c:v>741.46944446529415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1930.7579463336613</c:v>
+                  <c:v>748.88413890994707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0655257969979</c:v>
+                  <c:v>756.3729802990465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1969.5661810549677</c:v>
+                  <c:v>763.93671010203695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1989.2618428655176</c:v>
+                  <c:v>771.57607720305737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2009.1544612941727</c:v>
+                  <c:v>779.2918379750879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2029.2460059071143</c:v>
+                  <c:v>787.08475635483887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2049.5384659661854</c:v>
+                  <c:v>794.95560391838717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2070.0338506258472</c:v>
+                  <c:v>802.90515995757107</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2090.7341891321057</c:v>
+                  <c:v>810.9342115571468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>819.0435536727183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>827.23398920944544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>835.5063291015399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>843.86139239255533</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>852.3000063164809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>860.82300637964568</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>869.43123644344212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>878.1255488078765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>886.90680429595534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>895.77587233891484</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>904.73363106230397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>913.78096737292708</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>922.91877704665626</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>932.1479648171229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3782-4562-B602-E6E0C9094DB2}"/>
+              <c16:uniqueId val="{00000001-BAFC-432C-9A7C-B476BCEF6886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Price!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parcela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Price!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Price!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>941.46944446529415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAFC-432C-9A7C-B476BCEF6886}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -752,11 +1264,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="467203576"/>
-        <c:axId val="467197672"/>
+        <c:axId val="527815544"/>
+        <c:axId val="527817512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467203576"/>
+        <c:axId val="527815544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +1311,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467197672"/>
+        <c:crossAx val="527817512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467197672"/>
+        <c:axId val="527817512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +1370,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467203576"/>
+        <c:crossAx val="527815544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -953,31 +1465,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Valor das parcelas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,11 +1506,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sac!$C$15</c:f>
+              <c:f>SAC!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Parcela</c:v>
+                  <c:v>Prestação</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1040,10 +1527,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sac!$B$16:$B$25</c:f>
+              <c:f>SAC!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1073,52 +1560,136 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sac!$C$16:$C$25</c:f>
+              <c:f>SAC!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2200</c:v>
+                  <c:v>949.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2180</c:v>
+                  <c:v>944.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2160</c:v>
+                  <c:v>939.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2140</c:v>
+                  <c:v>934.83333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2120</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2100</c:v>
+                  <c:v>925.16666666666674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2080</c:v>
+                  <c:v>920.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2060</c:v>
+                  <c:v>915.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2040</c:v>
+                  <c:v>910.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020</c:v>
+                  <c:v>905.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>896.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>891.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>886.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>881.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>876.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>867.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>862.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>857.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>852.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>847.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>838.16666666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C21-447A-A258-95D4D79792AD}"/>
+              <c16:uniqueId val="{00000000-73E8-493E-84CE-1EBFFDD102B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1132,11 +1703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="482708168"/>
-        <c:axId val="482710792"/>
+        <c:axId val="527456648"/>
+        <c:axId val="527458288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="482708168"/>
+        <c:axId val="527456648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1750,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482710792"/>
+        <c:crossAx val="527458288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482710792"/>
+        <c:axId val="527458288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1809,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482708168"/>
+        <c:crossAx val="527456648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,23 +3491,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4AC012-794A-4668-9BFC-5FD7EC9AAA92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33580BA-6468-4ACB-BB93-2FC2DD031798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,23 +3532,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ABF73C-B36F-4D23-93C3-1DAE386E82AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB06AC8-EC77-4004-9AAE-90D891F81D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,29 +3573,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BE657D-554C-4A5F-873F-C1C4D95168C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D28DD9F-1519-4616-87EF-78ABE6414962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3453,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C0F0C-AB09-43B0-B66E-2CF8863253A8}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,8 +4034,11 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3474,8 +4046,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.01</v>
+      <c r="B1" s="5">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3489,10 +4061,25 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,26 +4087,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="C3" t="s">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
+        <f>B3</f>
+        <v>30000</v>
+      </c>
+      <c r="H3" s="5">
+        <f>$B$1</f>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I3" s="3">
         <f>G3*H3</f>
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,195 +4117,502 @@
       </c>
       <c r="B4" s="3">
         <f>B3*(1+B1)^B2</f>
-        <v>22092.442508224096</v>
+        <v>34466.75567327391</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3">
         <f>G3+I3</f>
-        <v>20200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
+        <v>30174</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H26" si="0">$B$1</f>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I4" s="3">
         <f>G4*H4</f>
-        <v>202</v>
+        <v>175.00919999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f>B4/B2</f>
-        <v>2209.2442508224094</v>
+        <v>1436.1148197197463</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <f>G4+I4</f>
-        <v>20402</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
+        <f t="shared" ref="G5:G27" si="1">G4+I4</f>
+        <v>30349.0092</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I12" si="0">G5*H5</f>
-        <v>204.02</v>
+        <f t="shared" ref="I5:I12" si="2">G5*H5</f>
+        <v>176.02425335999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="3">
+        <f>B4-B3</f>
+        <v>4466.7556732739104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G13" si="1">G5+I5</f>
-        <v>20606.02</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
+        <f t="shared" si="1"/>
+        <v>30525.03345336</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>206.06020000000001</v>
+        <f t="shared" si="2"/>
+        <v>177.04519402948799</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>20812.0802</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.01</v>
+        <v>30702.078647389488</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>208.120802</v>
+        <f t="shared" si="2"/>
+        <v>178.07205615485901</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>21020.201002000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
+        <v>30880.150703544346</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>210.20201002000002</v>
+        <f t="shared" si="2"/>
+        <v>179.10487408055721</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>21230.40301202</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
+        <v>31059.255577624903</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>212.3040301202</v>
+        <f t="shared" si="2"/>
+        <v>180.14368235022442</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>21442.707042140202</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.01</v>
+        <v>31239.399259975125</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>214.42707042140202</v>
+        <f t="shared" si="2"/>
+        <v>181.18851570785571</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>21657.134112561605</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
+        <v>31420.58777568298</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>216.57134112561607</v>
+        <f t="shared" si="2"/>
+        <v>182.23940909896126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>21873.70545368722</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
+        <v>31602.827184781941</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="I12" s="3">
+        <f>G12*H12</f>
+        <v>183.29639767173524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>31786.123582453678</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>218.73705453687219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>22092.442508224092</v>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ref="I13:I26" si="3">G13*H13</f>
+        <v>184.35951677823132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>31970.483099231908</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>185.42880197554504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>32155.911901207452</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>186.50428902700321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>32342.416190234453</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>187.58601390335983</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>32530.002204137814</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>188.6740127839993</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>32718.676216921813</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>189.76832205814651</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>32908.444538979958</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>190.86897832608375</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>33099.313517306044</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>191.97601840037504</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>33291.289535706419</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>193.08947930709721</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>33484.379015013517</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="3"/>
+        <v>194.20939828707839</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>33678.588413300597</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
+        <v>195.33581279714343</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>33873.924226097741</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>196.4687605113669</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>34070.392986609106</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>197.60827932233281</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>34268.001265931438</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>198.75440734240232</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>34466.755673273838</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <f>SUM(I3:I26)</f>
+        <v>4466.7556732738458</v>
       </c>
     </row>
   </sheetData>
@@ -3727,10 +4623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B07995-4424-488D-AB31-48BACE7C46FA}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -3776,17 +4672,29 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <f>B3</f>
-        <v>20000</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <f>$B$1*B3</f>
+        <v>200</v>
+      </c>
+      <c r="H2" s="4">
+        <f>I2-G2</f>
+        <v>741.46944446529415</v>
+      </c>
+      <c r="I2" s="4">
+        <f>$B$5</f>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J2" s="3">
+        <f>B3-H2</f>
+        <v>19258.530555534708</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3800,249 +4708,526 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3">
         <f>$B$1*J2</f>
-        <v>200</v>
+        <v>192.58530555534708</v>
       </c>
       <c r="H3" s="4">
-        <f>I3-G3</f>
-        <v>1911.641531023427</v>
+        <f t="shared" ref="H3:H11" si="0">I3-G3</f>
+        <v>748.88413890994707</v>
       </c>
       <c r="I3" s="4">
-        <f>$B$5</f>
-        <v>2111.641531023427</v>
+        <f t="shared" ref="I3:I25" si="1">$B$5</f>
+        <v>941.46944446529415</v>
       </c>
       <c r="J3" s="3">
         <f>J2-H3</f>
-        <v>18088.358468976574</v>
+        <v>18509.646416624761</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <f>B3+B3*B1</f>
-        <v>20200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G12" si="0">$B$1*J3</f>
-        <v>180.88358468976574</v>
+        <f t="shared" ref="G4:G25" si="2">$B$1*J3</f>
+        <v>185.09646416624761</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H12" si="1">I4-G4</f>
-        <v>1930.7579463336613</v>
+        <f t="shared" ref="H4:H25" si="3">I4-G4</f>
+        <v>756.3729802990465</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I12" si="2">$B$5</f>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J12" si="3">J3-H4</f>
-        <v>16157.600522642913</v>
+        <f t="shared" ref="J4:J25" si="4">J3-H4</f>
+        <v>17753.273436325715</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f>PMT(B1,B2,-B3)</f>
-        <v>2111.641531023427</v>
+        <v>941.46944446529415</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>161.57600522642915</v>
+        <f t="shared" si="2"/>
+        <v>177.53273436325716</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>1950.0655257969979</v>
+        <f t="shared" si="3"/>
+        <v>763.93671010203695</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="4"/>
+        <v>16989.336726223679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>B5*B2</f>
+        <v>22595.266667167059</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
-      </c>
-      <c r="J5" s="3">
+        <v>169.89336726223678</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>14207.534996845916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>142.07534996845916</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>1969.5661810549677</v>
+        <v>771.57607720305737</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>16217.760649020622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>B6-B3</f>
+        <v>2595.2666671670595</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
-      </c>
-      <c r="J6" s="3">
+        <v>162.17760649020622</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>12237.968815790948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>122.37968815790948</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>1989.2618428655176</v>
+        <v>779.2918379750879</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
-        <v>10248.706972925431</v>
+        <f t="shared" si="4"/>
+        <v>15438.468811045534</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>102.48706972925432</v>
+        <f t="shared" si="2"/>
+        <v>154.38468811045533</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>2009.1544612941727</v>
+        <f t="shared" si="3"/>
+        <v>787.08475635483887</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
-        <v>8239.5525116312583</v>
+        <f t="shared" si="4"/>
+        <v>14651.384054690694</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>82.395525116312584</v>
+        <f t="shared" si="2"/>
+        <v>146.51384054690695</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>2029.2460059071143</v>
+        <f t="shared" si="3"/>
+        <v>794.95560391838717</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
-        <v>6210.3065057241438</v>
+        <f t="shared" si="4"/>
+        <v>13856.428450772306</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>62.103065057241437</v>
+        <f t="shared" si="2"/>
+        <v>138.56428450772307</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>2049.5384659661854</v>
+        <f t="shared" si="3"/>
+        <v>802.90515995757107</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
-        <v>4160.7680397579588</v>
+        <f t="shared" si="4"/>
+        <v>13053.523290814735</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>41.607680397579593</v>
+        <f t="shared" si="2"/>
+        <v>130.53523290814735</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>2070.0338506258472</v>
+        <f t="shared" si="3"/>
+        <v>810.9342115571468</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
-        <v>2090.7341891321116</v>
+        <f t="shared" si="4"/>
+        <v>12242.589079257588</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>20.907341891321117</v>
+        <f t="shared" si="2"/>
+        <v>122.42589079257588</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>2090.7341891321057</v>
+        <f t="shared" si="3"/>
+        <v>819.0435536727183</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="4"/>
+        <v>11423.54552558487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>2111.641531023427</v>
-      </c>
-      <c r="J12" s="3">
+        <v>114.23545525584871</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>5.9117155615240335E-12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+        <v>827.23398920944544</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="4"/>
+        <v>10596.311536375424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>105.96311536375424</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>835.5063291015399</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
+        <v>9760.8052072738847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>97.608052072738843</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>843.86139239255533</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
+        <v>8916.9438148813297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>89.169438148813299</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>852.3000063164809</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>8064.6438085648488</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>80.646438085648484</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>860.82300637964568</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>7203.8208021852033</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>72.038208021852029</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>869.43123644344212</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>6334.3895657417615</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>63.343895657417619</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>878.1255488078765</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>5456.2640169338847</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>54.562640169338849</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>886.90680429595534</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>4569.3572126379295</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>45.693572126379294</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="3"/>
+        <v>895.77587233891484</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
+        <v>3673.5813402990148</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>36.735813402990146</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="3"/>
+        <v>904.73363106230397</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="4"/>
+        <v>2768.8477092367107</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>27.688477092367108</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="3"/>
+        <v>913.78096737292708</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>1855.0667418637836</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>18.550667418637836</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>922.91877704665626</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="4"/>
+        <v>932.14796481712733</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3214796481712732</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>932.1479648171229</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="1"/>
+        <v>941.46944446529415</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4337866711430252E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3">
-        <f>SUM(G3:G12)</f>
-        <v>1116.4153102342725</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" ref="H13:I13" si="4">SUM(H3:H12)</f>
-        <v>19999.999999999996</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="4"/>
-        <v>21116.415310234264</v>
+      <c r="G26" s="3">
+        <f>SUM(G2:G25)</f>
+        <v>2595.2666671670609</v>
+      </c>
+      <c r="H26" s="4">
+        <f>SUM(H2:H25)</f>
+        <v>20000</v>
+      </c>
+      <c r="I26" s="4">
+        <f>SUM(I2:I25)</f>
+        <v>22595.266667167052</v>
       </c>
     </row>
   </sheetData>
@@ -4053,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650EFBB-BF2D-49AB-9A31-2712F251FDCD}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,57 +5249,68 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.01</v>
+      <c r="B1" s="5">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <f>B3</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f>G2+H2</f>
+        <v>949.33333333333337</v>
+      </c>
+      <c r="G2" s="4">
+        <f>$B$3/$B$2</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H2" s="4">
+        <f>B3*$B$1</f>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <f>B3-G2</f>
+        <v>19166.666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4124,342 +5320,543 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F11" si="0">G3+H3</f>
+        <v>944.5</v>
       </c>
       <c r="G3" s="4">
-        <f>H3+I3</f>
-        <v>2200</v>
+        <f t="shared" ref="G3:G25" si="1">$B$3/$B$2</f>
+        <v>833.33333333333337</v>
       </c>
       <c r="H3" s="4">
+        <f>I2*$B$1</f>
+        <v>111.16666666666667</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="2">I2-G3</f>
+        <v>18333.333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>939.66666666666674</v>
+      </c>
+      <c r="G4" s="4">
         <f>$B$3/$B$2</f>
-        <v>2000</v>
-      </c>
-      <c r="I3" s="4">
-        <f>J2*$B$1</f>
-        <v>200</v>
-      </c>
-      <c r="J3" s="3">
-        <f>J2-H3</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <f>B3*(1+B1)^B2</f>
-        <v>22092.442508224096</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G12" si="0">H4+I4</f>
-        <v>2180</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H12" si="1">$B$3/$B$2</f>
-        <v>2000</v>
-      </c>
-      <c r="I4" s="4">
-        <f>J3*$B$1</f>
-        <v>180</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J12" si="2">J3-H4</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H4:H11" si="3">I3*$B$1</f>
+        <v>106.33333333333334</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>17500.000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
-        <f>B4/B2</f>
-        <v>2209.2442508224094</v>
+        <f>PMT(B1,B2,-B3)</f>
+        <v>895.08895282140691</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>934.83333333333337</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>101.50000000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>16666.666666666672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>B5*B2</f>
+        <v>21482.134867713765</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="H5" s="4">
-        <f>$B$3/$B$2</f>
-        <v>2000</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I12" si="3">J4*$B$1</f>
-        <v>160</v>
-      </c>
-      <c r="J5" s="3">
+        <v>930</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>96.666666666666686</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
+        <v>15833.333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>B6-B3</f>
+        <v>1482.1348677137648</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>2140</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I6" s="4">
+        <v>925.16666666666674</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="J6" s="3">
+        <v>91.833333333333357</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
+        <v>15000.000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>2120</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I7" s="4">
+        <v>920.33333333333337</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J7" s="3">
+        <v>87.000000000000014</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
+        <v>14166.66666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>915.5</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>82.166666666666686</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>13333.333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>910.66666666666674</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>77.333333333333343</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>12500.000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>905.83333333333337</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>11666.666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F25" si="4">G12+H12</f>
+        <v>901</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:H25" si="5">I11*$B$1</f>
+        <v>67.666666666666671</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I25" si="6">I11-G12</f>
+        <v>10833.333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>896.16666666666674</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="5"/>
+        <v>62.833333333333336</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>2080</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="3"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="4"/>
+        <v>891.33333333333337</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="6"/>
+        <v>9166.6666666666661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>886.5</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
+        <v>53.166666666666657</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="6"/>
+        <v>8333.3333333333321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>881.66666666666674</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="5"/>
+        <v>48.333333333333321</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="6"/>
+        <v>7499.9999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>876.83333333333337</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
+        <v>43.499999999999993</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="6"/>
+        <v>6666.6666666666661</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="4"/>
+        <v>872</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>38.666666666666657</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="6"/>
+        <v>5833.333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>867.16666666666674</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
+        <v>33.833333333333329</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="4"/>
+        <v>862.33333333333337</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="5"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="6"/>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
+      <c r="F21" s="4">
+        <f t="shared" si="4"/>
+        <v>857.5</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
+        <v>24.166666666666668</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="6"/>
+        <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="4"/>
+        <v>852.66666666666674</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="5"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>847.83333333333337</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
+        <v>14.499999999999998</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="6"/>
+        <v>1666.6666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="4"/>
+        <v>843</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H24" s="4">
+        <f>I23*$B$1</f>
+        <v>9.6666666666666643</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
+        <v>833.33333333333314</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="4"/>
+        <v>838.16666666666674</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H25" s="4">
+        <f>I24*$B$1</f>
+        <v>4.8333333333333321</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3">
-        <f>SUM(G3:G12)</f>
-        <v>21100</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" ref="H13:I13" si="4">SUM(H3:H12)</f>
+      <c r="F27" s="4">
+        <f>SUM(F2:F25)</f>
+        <v>21450</v>
+      </c>
+      <c r="G27" s="4">
+        <f>SUM(G2:G25)</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="4"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2020</v>
+      <c r="H27" s="4">
+        <f>SUM(H2:H25)</f>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2em/02-sop/aula08/juros.xlsx
+++ b/2em/02-sop/aula08/juros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\02-sop\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE807F71-C40F-4798-A5E9-DD39735FF0E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98CA1C-70DC-48EB-B1AE-2992234DF906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7327C358-D555-446E-878B-944EE40227EA}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Price" sheetId="2" r:id="rId2"/>
     <sheet name="SAC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1613,76 +1610,76 @@
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>949.33333333333337</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>944.5</c:v>
+                  <c:v>1416.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>939.66666666666674</c:v>
+                  <c:v>1409.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>934.83333333333337</c:v>
+                  <c:v>1402.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>930</c:v>
+                  <c:v>1395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>925.16666666666674</c:v>
+                  <c:v>1387.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>920.33333333333337</c:v>
+                  <c:v>1380.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>915.5</c:v>
+                  <c:v>1373.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>910.66666666666674</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>905.83333333333337</c:v>
+                  <c:v>1358.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>901</c:v>
+                  <c:v>1351.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>896.16666666666674</c:v>
+                  <c:v>1344.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>891.33333333333337</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>886.5</c:v>
+                  <c:v>1329.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>881.66666666666674</c:v>
+                  <c:v>1322.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>876.83333333333337</c:v>
+                  <c:v>1315.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>872</c:v>
+                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>867.16666666666674</c:v>
+                  <c:v>1300.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>862.33333333333337</c:v>
+                  <c:v>1293.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>857.5</c:v>
+                  <c:v>1286.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>852.66666666666674</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>847.83333333333337</c:v>
+                  <c:v>1271.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>843</c:v>
+                  <c:v>1264.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>838.16666666666674</c:v>
+                  <c:v>1257.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,121 +3605,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="LER - Anotações"/>
-      <sheetName val="LER"/>
-      <sheetName val="SOP"/>
-      <sheetName val="AITO"/>
-      <sheetName val="LOP"/>
-      <sheetName val="Sorteio"/>
-      <sheetName val="JurosCompostos"/>
-      <sheetName val="Price"/>
-      <sheetName val="Sac"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Parcela</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1</v>
-          </cell>
-          <cell r="C16">
-            <v>2200</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>2</v>
-          </cell>
-          <cell r="C17">
-            <v>2180</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>3</v>
-          </cell>
-          <cell r="C18">
-            <v>2160</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>4</v>
-          </cell>
-          <cell r="C19">
-            <v>2140</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>5</v>
-          </cell>
-          <cell r="C20">
-            <v>2120</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>6</v>
-          </cell>
-          <cell r="C21">
-            <v>2100</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>7</v>
-          </cell>
-          <cell r="C22">
-            <v>2080</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>8</v>
-          </cell>
-          <cell r="C23">
-            <v>2060</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>9</v>
-          </cell>
-          <cell r="C24">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>10</v>
-          </cell>
-          <cell r="C25">
-            <v>2020</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4025,7 +3907,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,7 +4046,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I12" si="2">G5*H5</f>
+        <f t="shared" ref="I5:I11" si="2">G5*H5</f>
         <v>176.02425335999999</v>
       </c>
     </row>
@@ -4715,7 +4597,7 @@
         <v>192.58530555534708</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H11" si="0">I3-G3</f>
+        <f t="shared" ref="H3" si="0">I3-G3</f>
         <v>748.88413890994707</v>
       </c>
       <c r="I3" s="4">
@@ -5241,7 +5123,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,19 +5177,19 @@
       </c>
       <c r="F2" s="4">
         <f>G2+H2</f>
-        <v>949.33333333333337</v>
+        <v>1424</v>
       </c>
       <c r="G2" s="4">
         <f>$B$3/$B$2</f>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H2" s="4">
         <f>B3*$B$1</f>
-        <v>115.99999999999999</v>
+        <v>174</v>
       </c>
       <c r="I2" s="3">
         <f>B3-G2</f>
-        <v>19166.666666666668</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5315,7 +5197,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -5325,19 +5207,19 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F11" si="0">G3+H3</f>
-        <v>944.5</v>
+        <v>1416.75</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G25" si="1">$B$3/$B$2</f>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H3" s="4">
         <f>I2*$B$1</f>
-        <v>111.16666666666667</v>
+        <v>166.75</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I11" si="2">I2-G3</f>
-        <v>18333.333333333336</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5347,25 +5229,25 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>939.66666666666674</v>
+        <v>1409.5</v>
       </c>
       <c r="G4" s="4">
         <f>$B$3/$B$2</f>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H11" si="3">I3*$B$1</f>
-        <v>106.33333333333334</v>
+        <v>159.5</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>17500.000000000004</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <f>PMT(B1,B2,-B3)</f>
-        <v>895.08895282140691</v>
+        <v>1342.6334292321103</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -5375,25 +5257,25 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>934.83333333333337</v>
+        <v>1402.25</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>101.50000000000001</v>
+        <v>152.25</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>16666.666666666672</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <f>B5*B2</f>
-        <v>21482.134867713765</v>
+        <v>32223.202301570647</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -5403,25 +5285,25 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>930</v>
+        <v>1395</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>96.666666666666686</v>
+        <v>145</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>15833.333333333338</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f>B6-B3</f>
-        <v>1482.1348677137648</v>
+        <v>2223.2023015706473</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -5431,19 +5313,19 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>925.16666666666674</v>
+        <v>1387.75</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="3"/>
-        <v>91.833333333333357</v>
+        <v>137.75</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>15000.000000000004</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,19 +5335,19 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>920.33333333333337</v>
+        <v>1380.5</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>87.000000000000014</v>
+        <v>130.5</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>14166.66666666667</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5475,19 +5357,19 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>915.5</v>
+        <v>1373.25</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>82.166666666666686</v>
+        <v>123.24999999999999</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>13333.333333333336</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5496,19 +5378,19 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>910.66666666666674</v>
+        <v>1366</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>77.333333333333343</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="2"/>
-        <v>12500.000000000002</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5517,19 +5399,19 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>905.83333333333337</v>
+        <v>1358.75</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>72.5</v>
+        <v>108.74999999999999</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>11666.666666666668</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5538,19 +5420,19 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F25" si="4">G12+H12</f>
-        <v>901</v>
+        <v>1351.5</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:H25" si="5">I11*$B$1</f>
-        <v>67.666666666666671</v>
+        <f t="shared" ref="H12:H23" si="5">I11*$B$1</f>
+        <v>101.5</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ref="I12:I25" si="6">I11-G12</f>
-        <v>10833.333333333334</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5560,19 +5442,19 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
-        <v>896.16666666666674</v>
+        <v>1344.25</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v>62.833333333333336</v>
+        <v>94.25</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5581,19 +5463,19 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>891.33333333333337</v>
+        <v>1337</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="5"/>
-        <v>57.999999999999993</v>
+        <v>87</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="6"/>
-        <v>9166.6666666666661</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,19 +5484,19 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>886.5</v>
+        <v>1329.75</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="5"/>
-        <v>53.166666666666657</v>
+        <v>79.75</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="6"/>
-        <v>8333.3333333333321</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5624,19 +5506,19 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>881.66666666666674</v>
+        <v>1322.5</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="5"/>
-        <v>48.333333333333321</v>
+        <v>72.5</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="6"/>
-        <v>7499.9999999999991</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -5646,19 +5528,19 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
-        <v>876.83333333333337</v>
+        <v>1315.25</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="5"/>
-        <v>43.499999999999993</v>
+        <v>65.25</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="6"/>
-        <v>6666.6666666666661</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -5668,19 +5550,19 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>872</v>
+        <v>1308</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="5"/>
-        <v>38.666666666666657</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="6"/>
-        <v>5833.333333333333</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -5690,19 +5572,19 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>867.16666666666674</v>
+        <v>1300.75</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="5"/>
-        <v>33.833333333333329</v>
+        <v>50.75</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -5712,19 +5594,19 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
-        <v>862.33333333333337</v>
+        <v>1293.5</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="5"/>
-        <v>28.999999999999996</v>
+        <v>43.5</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="6"/>
-        <v>4166.666666666667</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -5734,19 +5616,19 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>857.5</v>
+        <v>1286.25</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="5"/>
-        <v>24.166666666666668</v>
+        <v>36.25</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="6"/>
-        <v>3333.3333333333335</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -5756,19 +5638,19 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="4"/>
-        <v>852.66666666666674</v>
+        <v>1279</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="5"/>
-        <v>19.333333333333332</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -5778,19 +5660,19 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="4"/>
-        <v>847.83333333333337</v>
+        <v>1271.75</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="5"/>
-        <v>14.499999999999998</v>
+        <v>21.75</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="6"/>
-        <v>1666.6666666666665</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -5800,19 +5682,19 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
-        <v>843</v>
+        <v>1264.5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H24" s="4">
         <f>I23*$B$1</f>
-        <v>9.6666666666666643</v>
+        <v>14.499999999999998</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="6"/>
-        <v>833.33333333333314</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -5822,15 +5704,15 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>838.16666666666674</v>
+        <v>1257.25</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+        <v>1250</v>
       </c>
       <c r="H25" s="4">
         <f>I24*$B$1</f>
-        <v>4.8333333333333321</v>
+        <v>7.2499999999999991</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
@@ -5843,15 +5725,15 @@
       </c>
       <c r="F27" s="4">
         <f>SUM(F2:F25)</f>
-        <v>21450</v>
+        <v>32175</v>
       </c>
       <c r="G27" s="4">
         <f>SUM(G2:G25)</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="H27" s="4">
         <f>SUM(H2:H25)</f>
-        <v>1450</v>
+        <v>2175</v>
       </c>
     </row>
   </sheetData>

--- a/2em/02-sop/aula08/juros.xlsx
+++ b/2em/02-sop/aula08/juros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\02-sop\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA98CA1C-70DC-48EB-B1AE-2992234DF906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C39806-D895-4D47-80AA-0BBCD326D179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7327C358-D555-446E-878B-944EE40227EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{7327C358-D555-446E-878B-944EE40227EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Compostos" sheetId="1" r:id="rId1"/>
@@ -3906,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36C0F0C-AB09-43B0-B66E-2CF8863253A8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4508,7 +4508,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8650EFBB-BF2D-49AB-9A31-2712F251FDCD}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,7 +5296,7 @@
         <v>145</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
+        <f>I5-G6</f>
         <v>23750</v>
       </c>
     </row>
